--- a/Document/模型.xlsx
+++ b/Document/模型.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="普通等级" sheetId="1" r:id="rId1"/>
     <sheet name="巅峰等级" sheetId="5" r:id="rId2"/>
     <sheet name="职业属性成长" sheetId="2" r:id="rId3"/>
     <sheet name="角色属性" sheetId="6" r:id="rId4"/>
-    <sheet name="结算流程" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>升至下级所需经验</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -304,30 +303,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>物理伤害上限/下限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰伤害上限/下限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷电伤害上限/下限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒素伤害上限/下限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥术伤害上限/下限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神圣伤害上限/下限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Strength</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -352,22 +327,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【A】使用技能【B】攻击【C】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LightningResistance</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获取本次攻击结果的类型，attack_result_type=GetAttackResultType(attack_type, A, B, C)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据攻击结果的类型，计算出本次攻击的最终伤害数值attack_damage=CalcAttackDamage(attack_reslut_type, A, B, C)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>注：角色等级初始值为1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -444,31 +407,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>计算顺序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰霜伤害上限/下限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取本次攻击类型，attack_type=GetAttackType(A, B)。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击类型：物理攻击0、冰1火2雷3毒4奥术5神圣6。通过技能ID读取。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理攻击结果：躲闪1、格挡2、爆击3、普通命中4。法术攻击结果：爆击3、普通命中4。</t>
+    <t>附加物理伤害上限/下限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加冰霜伤害上限/下限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加火焰伤害上限/下限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加雷电伤害上限/下限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加毒素伤害上限/下限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加奥术伤害上限/下限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加神圣伤害上限/下限</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,19 +584,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -645,26 +599,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -673,6 +612,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -994,14 +948,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>87</v>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1580,14 +1534,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>88</v>
+      <c r="C1" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2413,224 +2367,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>100</v>
+      <c r="E1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>9</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="7">
         <v>11</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="7">
         <v>8</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="7">
         <v>9</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="7">
         <v>3</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="7">
         <v>1</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>11</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <v>10</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>11</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="7">
         <v>3</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="A4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>9</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>10</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>11</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>9</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="7">
         <v>3</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="A5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>9</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>8</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>10</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <v>11</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="7">
         <v>3</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="A6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>9</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>12</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>9</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <v>10</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="7">
         <v>1</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="A7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>10</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>8</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>8</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <v>9</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <v>3</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="7">
         <v>1</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2644,510 +2598,510 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="12"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>77</v>
+      <c r="C2" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>78</v>
+      <c r="C3" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>79</v>
+      <c r="C4" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>80</v>
+      <c r="C5" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>104</v>
+      <c r="C7" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="18"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
+      <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
+      <c r="B18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="B19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="12"/>
+      <c r="B21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="12"/>
+      <c r="B22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="12"/>
+      <c r="B23" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="12"/>
+      <c r="B24" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="B18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="B19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="14"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
-      <c r="B20" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
-      <c r="B21" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="20"/>
-      <c r="B22" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="14" t="s">
+      <c r="C24" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
+      <c r="B25" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="20"/>
-      <c r="B23" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="20"/>
-      <c r="B24" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="21"/>
-      <c r="B25" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="20"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="20"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="20"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="14"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="20"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="20"/>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="14"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="20"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="14"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="20"/>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>84</v>
+      <c r="C34" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="20"/>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="14"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="20"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="14"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="20"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="14"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="20"/>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="14"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="21"/>
-      <c r="B39" s="10" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="14"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="14"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="20"/>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="20"/>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="20"/>
-      <c r="B43" s="10" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="14"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="20"/>
-      <c r="B44" s="10" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="14"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="20"/>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="14"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="20"/>
-      <c r="B46" s="10" t="s">
+      <c r="A46" s="12"/>
+      <c r="B46" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="14"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="21"/>
-      <c r="B47" s="10" t="s">
+      <c r="A47" s="13"/>
+      <c r="B47" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="14"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="14"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="13"/>
-      <c r="B49" s="10" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="14"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="13"/>
-      <c r="B50" s="10" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="14"/>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="13"/>
-      <c r="B51" s="10" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="14"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="13"/>
-      <c r="B52" s="10" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="14"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="13"/>
-      <c r="B53" s="10" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="14"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="13"/>
-      <c r="B54" s="10" t="s">
+      <c r="A54" s="14"/>
+      <c r="B54" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="14"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="13"/>
-      <c r="B55" s="10" t="s">
+      <c r="A55" s="14"/>
+      <c r="B55" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="14"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="13"/>
-      <c r="B56" s="10" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="14"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="13"/>
-      <c r="B57" s="10" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="14"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="13"/>
-      <c r="B58" s="10" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="14"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="13"/>
-      <c r="B59" s="10" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="13"/>
-      <c r="B60" s="10" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="14"/>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="13"/>
-      <c r="B61" s="10" t="s">
+      <c r="A61" s="14"/>
+      <c r="B61" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="14"/>
+      <c r="C61" s="9"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="13"/>
-      <c r="B62" s="10" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="14"/>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="13"/>
-      <c r="B63" s="10" t="s">
+      <c r="A63" s="14"/>
+      <c r="B63" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="14"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="13"/>
-      <c r="B64" s="10" t="s">
+      <c r="A64" s="14"/>
+      <c r="B64" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="14"/>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="13"/>
-      <c r="B65" s="10" t="s">
+      <c r="A65" s="14"/>
+      <c r="B65" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="14"/>
+      <c r="C65" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3163,79 +3117,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="97.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A4"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>